--- a/data/trans_bre/P3A_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>37.65456832534686</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28.14186185468079</v>
+        <v>28.14186185468082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.24715926396404</v>
@@ -649,7 +649,7 @@
         <v>0.7157237293863813</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.449455665364066</v>
+        <v>0.4494556653640663</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>43.87062997541495</v>
+        <v>43.46763398564399</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>40.24906128635401</v>
+        <v>39.99616005610034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34.15898596949071</v>
+        <v>34.08493200615604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22.92215948058411</v>
+        <v>23.28817368512261</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.035081906307835</v>
+        <v>1.016758167835214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8859051349204529</v>
+        <v>0.8691969031501126</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6150133149623075</v>
+        <v>0.6146761705621844</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3417551035785696</v>
+        <v>0.3451291675810606</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>52.85213954812112</v>
+        <v>52.88275120087681</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>47.77411888807327</v>
+        <v>47.67520084080213</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40.97201660076529</v>
+        <v>41.37755647349771</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33.53069671220248</v>
+        <v>33.62906278869606</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.5233785002507</v>
+        <v>1.526750256097944</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.195656086372969</v>
+        <v>1.198334336175226</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8175071627914485</v>
+        <v>0.831283825169796</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5800562165530418</v>
+        <v>0.5768650821145644</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>50.49770259668813</v>
+        <v>50.71117802644035</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>37.36400118113445</v>
+        <v>37.17471860521069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32.42725099650755</v>
+        <v>32.30248070543588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24.87147483272964</v>
+        <v>24.36154507140358</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.352143661382909</v>
+        <v>1.375283818426597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8250838296436573</v>
+        <v>0.8185023391942615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5792730524971293</v>
+        <v>0.5723795937215622</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3803995186984966</v>
+        <v>0.3658673808561165</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>57.7105445446047</v>
+        <v>57.6586092040017</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>44.99034902060581</v>
+        <v>45.21056936180705</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40.57004404089326</v>
+        <v>40.13202018379239</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33.01301622402264</v>
+        <v>32.28370955437622</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.806678486433827</v>
+        <v>1.822604050331615</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.120069250783194</v>
+        <v>1.141632468749129</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8099435287799998</v>
+        <v>0.8050165322497476</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5577732997251881</v>
+        <v>0.5431987077465833</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>30.22592695269575</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27.24370664153108</v>
+        <v>27.24370664153109</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.482557568350061</v>
@@ -849,7 +849,7 @@
         <v>0.554408175508843</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4272435712228038</v>
+        <v>0.4272435712228039</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>44.3569467951088</v>
+        <v>43.86557249655969</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>33.28524930533289</v>
+        <v>33.44313576688738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25.39858863406219</v>
+        <v>25.55327743603914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23.51422263248638</v>
+        <v>23.37649285022004</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.281192000232861</v>
+        <v>1.264359723799358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.697631672412841</v>
+        <v>0.6986913531004185</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4476550034201537</v>
+        <v>0.4449574486052492</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3547646156493716</v>
+        <v>0.3507179281044805</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>51.61501559098988</v>
+        <v>51.74390313725429</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>41.61649508220563</v>
+        <v>42.10161273961967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34.47143502732959</v>
+        <v>34.51521483701769</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31.32006338484621</v>
+        <v>30.90596389191538</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.73142287425893</v>
+        <v>1.752701789457963</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.000171109093577</v>
+        <v>1.008625010351883</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6729204356169981</v>
+        <v>0.6695334878477124</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5199967288725386</v>
+        <v>0.5089067748622107</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>28.34323346758246</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16.56026953724415</v>
+        <v>16.56026953724417</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.20728079247478</v>
@@ -949,7 +949,7 @@
         <v>0.5478157013871363</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2278772742547673</v>
+        <v>0.2278772742547675</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>34.59368265870627</v>
+        <v>34.19927551561005</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>23.69278454636653</v>
+        <v>24.20074901848676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21.97666589842781</v>
+        <v>22.35819004386764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12.7007673908328</v>
+        <v>12.69049835100339</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9281451407464155</v>
+        <v>0.9107400905283065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4603641229829223</v>
+        <v>0.4775992463246885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3885809062362267</v>
+        <v>0.4048520853778907</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1695321630704487</v>
+        <v>0.1670767800920119</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>47.51683467232098</v>
+        <v>47.24576605183955</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>36.83242505655561</v>
+        <v>37.01926358280427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>34.2404623896136</v>
+        <v>34.0404424242946</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20.26680743908865</v>
+        <v>20.79815989233195</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.614679188269025</v>
+        <v>1.582905010842154</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8481300747348222</v>
+        <v>0.8758500943715134</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7052450182008453</v>
+        <v>0.7156733799901936</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2892113605800702</v>
+        <v>0.2982464408690421</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>34.32942931594021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24.85771925497807</v>
+        <v>24.85771925497809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.45456204669368</v>
@@ -1049,7 +1049,7 @@
         <v>0.6470417585277162</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3776308776482724</v>
+        <v>0.3776308776482728</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>47.791282215461</v>
+        <v>47.59236683350287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>37.59254630342221</v>
+        <v>37.78832206912666</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32.05639697024226</v>
+        <v>32.29437363847278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22.9761509904856</v>
+        <v>22.72769276120563</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.334624115196372</v>
+        <v>1.328776308729186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8273470979796256</v>
+        <v>0.8362862746812944</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5839980912019124</v>
+        <v>0.5921390580110284</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3424402944390376</v>
+        <v>0.3362274678014088</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>51.84891036622399</v>
+        <v>51.84643281069054</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>42.15371209333245</v>
+        <v>41.80270450940021</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36.39742090086857</v>
+        <v>36.63745517102905</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27.05310670491205</v>
+        <v>26.71971885853101</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.57935117805464</v>
+        <v>1.585374908850037</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.001785214353949</v>
+        <v>0.9960732332323988</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7071777483120546</v>
+        <v>0.7085469114761578</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4222102152655149</v>
+        <v>0.4151304386736058</v>
       </c>
     </row>
     <row r="19">
